--- a/PracticeRecord.xlsx
+++ b/PracticeRecord.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -106,6 +109,26 @@
   </si>
   <si>
     <t>[ID00001TwoSum](src/com/xixi/easy/ID00001TwoSum.java)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.03.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0～n-1中缺失的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 53 - II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0～n-1中缺失的数字](https://leetcode-cn.com/problems/que-shi-de-shu-zi-lcof/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[IDOfferII_53_QueShiDeShu](src/com/xixi/easy/IDOfferII_53_QueShiDeShu.java)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,15 +588,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="28.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="3" customWidth="1"/>
@@ -717,7 +741,27 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A1:E9">
+    <sortCondition ref="A3"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
